--- a/documentation/SWE Burndown-Chart.xlsx
+++ b/documentation/SWE Burndown-Chart.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelochsendorf/Desktop/praktikum_swe_ws1718/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelochsendorf/Desktop/praktikum_swe_ws1718/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -570,7 +570,7 @@
                   <c:v>140.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>90.0</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>45.0</c:v>
@@ -894,7 +894,7 @@
                   <c:v>701.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>701.0</c:v>
+                  <c:v>640.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>686.0</c:v>
@@ -923,11 +923,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="1236307776"/>
-        <c:axId val="1258431568"/>
+        <c:axId val="-1235398544"/>
+        <c:axId val="-1234481680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1236307776"/>
+        <c:axId val="-1235398544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -988,7 +988,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1258431568"/>
+        <c:crossAx val="-1234481680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -996,7 +996,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1258431568"/>
+        <c:axId val="-1234481680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1057,7 +1057,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1236307776"/>
+        <c:crossAx val="-1235398544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1111,8 +1111,8 @@
       <xdr:rowOff>38880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>672400</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>78480</xdr:rowOff>
     </xdr:to>
@@ -1401,8 +1401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1714,7 +1714,7 @@
         <v>50</v>
       </c>
       <c r="C18" s="3">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" si="2"/>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E18" s="5">
         <f t="shared" si="0"/>
-        <v>701</v>
+        <v>640</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">

--- a/documentation/SWE Burndown-Chart.xlsx
+++ b/documentation/SWE Burndown-Chart.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelochsendorf/Desktop/praktikum_swe_ws1718/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jana\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14568" windowHeight="5640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -137,7 +137,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Erklärender Text" xfId="1" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -213,12 +213,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -244,7 +247,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -306,52 +308,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>51.0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>52.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -363,57 +365,62 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>91.0</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55.0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AC1D-4323-A8C6-C987BB1066F0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -474,52 +481,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>51.0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>52.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -531,57 +538,62 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>600.0</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>536.0</c:v>
+                  <c:v>536</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>480.0</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>390.0</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>370.0</c:v>
+                  <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>270.0</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>380.0</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>330.0</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>250.0</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>220.0</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>190.0</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>140.0</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AC1D-4323-A8C6-C987BB1066F0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -636,52 +648,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>51.0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>52.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -693,57 +705,62 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74.0</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>165.0</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>199.0</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>254.0</c:v>
+                  <c:v>254</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>291.0</c:v>
+                  <c:v>291</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>336.0</c:v>
+                  <c:v>336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>396.0</c:v>
+                  <c:v>396</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>431.0</c:v>
+                  <c:v>431</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>461.0</c:v>
+                  <c:v>461</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>501.0</c:v>
+                  <c:v>501</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>511.0</c:v>
+                  <c:v>511</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>561.0</c:v>
+                  <c:v>561</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>611.0</c:v>
+                  <c:v>611</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>641.0</c:v>
+                  <c:v>675</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>666.0</c:v>
+                  <c:v>715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AC1D-4323-A8C6-C987BB1066F0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -798,52 +815,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>51.0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>52.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -855,57 +872,62 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>610.0</c:v>
+                  <c:v>610</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>610.0</c:v>
+                  <c:v>610</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>645.0</c:v>
+                  <c:v>645</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>589.0</c:v>
+                  <c:v>589</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>624.0</c:v>
+                  <c:v>624</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>561.0</c:v>
+                  <c:v>561</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>716.0</c:v>
+                  <c:v>716</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>726.0</c:v>
+                  <c:v>726</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>681.0</c:v>
+                  <c:v>681</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>681.0</c:v>
+                  <c:v>681</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>701.0</c:v>
+                  <c:v>701</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>701.0</c:v>
+                  <c:v>701</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>701.0</c:v>
+                  <c:v>701</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>640.0</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>686.0</c:v>
+                  <c:v>715</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>666.0</c:v>
+                  <c:v>715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AC1D-4323-A8C6-C987BB1066F0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -962,7 +984,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1031,7 +1052,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1072,7 +1092,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1118,7 +1137,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1398,23 +1423,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1422,7 +1447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1430,7 +1455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1447,7 +1472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>41</v>
       </c>
@@ -1466,7 +1491,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f t="shared" ref="A6:A16" si="1">A5+1</f>
         <v>42</v>
@@ -1486,7 +1511,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -1506,7 +1531,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -1526,7 +1551,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -1546,7 +1571,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -1566,7 +1591,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -1586,7 +1611,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -1606,7 +1631,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -1626,7 +1651,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -1646,7 +1671,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -1666,7 +1691,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -1686,7 +1711,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -1705,7 +1730,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f>A17+1</f>
         <v>2</v>
@@ -1725,45 +1750,48 @@
         <v>640</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f>A18+1</f>
         <v>3</v>
       </c>
       <c r="B19" s="3">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="C19" s="3">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" si="2"/>
-        <v>641</v>
+        <v>675</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="0"/>
-        <v>686</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f>A19+1</f>
         <v>4</v>
       </c>
       <c r="B20" s="3">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C20" s="3">
         <v>0</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="2"/>
-        <v>666</v>
+        <v>715</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="0"/>
-        <v>666</v>
-      </c>
+        <v>715</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
